--- a/01_ライフコース/02_自己紹介サイト作成/確認事項.xlsx
+++ b/01_ライフコース/02_自己紹介サイト作成/確認事項.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\MyTraining\自己紹介サイト作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\Dキャリアコース\01_ライフコース\02_自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F4634-BFFD-49E5-AF83-B9394796D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FADA09-302B-44CE-ACE1-C12E4FCC1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="876" windowWidth="15960" windowHeight="11052" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12576" yWindow="228" windowWidth="10272" windowHeight="12012" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
   <si>
     <t>h1</t>
   </si>
@@ -412,6 +412,28 @@
     <t>授業</t>
     <rPh sb="0" eb="2">
       <t>ジュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1回目提出</t>
+    <rPh sb="1" eb="5">
+      <t>カイメテイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自宅</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -474,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +533,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -546,34 +574,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,14 +649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1043,10 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D17222-E0C6-4045-A4D3-C29AC3A9A7C4}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1054,7 +1057,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>95</v>
       </c>
@@ -1067,11 +1070,14 @@
       <c r="D1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="15">
         <v>46017</v>
       </c>
@@ -1081,44 +1087,47 @@
       <c r="C2" s="14">
         <v>1.5</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>1.5</v>
       </c>
-      <c r="E2" s="24">
-        <f>SUM(C2:D100)</f>
-        <v>14</v>
-      </c>
-      <c r="F2" s="23">
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <f>SUM(C2:E100)</f>
+        <v>34</v>
+      </c>
+      <c r="G2" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21">
+    <row r="3" spans="1:7">
+      <c r="A3" s="20">
         <v>46018</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="F3">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="G3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21">
+    <row r="4" spans="1:7">
+      <c r="A4" s="20">
         <v>46019</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="F4">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="G4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="15">
         <v>46020</v>
       </c>
@@ -1131,68 +1140,75 @@
       <c r="D5" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19">
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="18">
         <v>46021</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="18">
         <v>46022</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="18">
         <v>46023</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="18">
         <v>46024</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18">
         <v>46025</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="18">
         <v>46026</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="15">
         <v>46027</v>
       </c>
@@ -1205,8 +1221,9 @@
       <c r="D12" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="15">
         <v>46028</v>
       </c>
@@ -1219,8 +1236,9 @@
       <c r="D13" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="15">
         <v>46029</v>
       </c>
@@ -1233,8 +1251,9 @@
       <c r="D14" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="15">
         <v>46030</v>
       </c>
@@ -1247,8 +1266,9 @@
       <c r="D15" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="15">
         <v>46031</v>
       </c>
@@ -1261,118 +1281,161 @@
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15">
+      <c r="E16" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23">
         <v>46032</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23">
         <v>46033</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="15">
         <v>46034</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="15">
         <v>46035</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="15">
         <v>46036</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="15">
         <v>46037</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="15">
         <v>46038</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="15">
+      <c r="C23" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23">
         <v>46039</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="15">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23">
         <v>46040</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="15">
         <v>46041</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="15">
         <v>46042</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="14">
+        <v>1.5</v>
+      </c>
       <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="14"/>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="15">
         <v>46043</v>
       </c>
@@ -1381,8 +1444,9 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="15">
         <v>46044</v>
       </c>
@@ -1391,8 +1455,9 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="15">
         <v>46045</v>
       </c>
@@ -1401,28 +1466,31 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23">
         <v>46046</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="15">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23">
         <v>46047</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="15">
         <v>46048</v>
       </c>
@@ -1431,8 +1499,9 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="15">
         <v>46049</v>
       </c>
@@ -1441,8 +1510,9 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="15">
         <v>46050</v>
       </c>
@@ -1450,9 +1520,14 @@
         <v>92</v>
       </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="15">
         <v>46051</v>
       </c>
@@ -1461,8 +1536,9 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="15">
         <v>46052</v>
       </c>
@@ -1471,8 +1547,9 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="15">
         <v>46053</v>
       </c>
@@ -1481,8 +1558,9 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="15">
         <v>46054</v>
       </c>
@@ -1491,8 +1569,9 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="15">
         <v>46055</v>
       </c>
@@ -1501,8 +1580,9 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="15">
         <v>46056</v>
       </c>
@@ -1511,8 +1591,9 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="15">
         <v>46057</v>
       </c>
@@ -1521,6 +1602,7 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1532,9 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1554,7 +1634,9 @@
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1652,9 @@
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1663,9 @@
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1681,9 @@
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1692,9 @@
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1703,9 @@
       <c r="A9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1714,9 @@
       <c r="A10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1732,9 @@
       <c r="A12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1653,9 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB313B5-95C2-43E5-90AF-5AB46A2C2D85}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1665,8 +1759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1675,8 +1773,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="92.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +1787,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1695,8 +1801,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="54">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1818,9 @@
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1832,9 @@
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1729,8 +1843,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1860,9 @@
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1751,32 +1871,48 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1785,8 +1921,12 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
         <v>33</v>
@@ -1806,9 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F42F08-99D1-4374-9DCA-6528F6C2F17D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1827,7 +1965,9 @@
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1836,7 +1976,9 @@
       <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1852,7 +1994,9 @@
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +2005,9 @@
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +2016,9 @@
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +2027,9 @@
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1892,8 +2042,12 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1902,21 +2056,31 @@
       <c r="A11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1925,7 +2089,9 @@
       <c r="A14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1934,7 +2100,9 @@
       <c r="A15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1947,36 +2115,56 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1991,9 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C103213-AA27-430A-95E4-A1F7A2A485DD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2006,7 +2192,9 @@
       <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
@@ -2015,7 +2203,9 @@
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
@@ -2024,7 +2214,9 @@
       <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
@@ -2033,14 +2225,20 @@
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2049,28 +2247,42 @@
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2298,9 @@
       <c r="A11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
@@ -2095,14 +2309,20 @@
       <c r="A12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
@@ -2117,9 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6066A1A-0E65-4F7B-8303-428444A42F39}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2138,7 +2356,9 @@
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
@@ -2147,7 +2367,9 @@
       <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
@@ -2156,35 +2378,53 @@
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
@@ -2197,8 +2437,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="55.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2211,8 +2455,12 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="55.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
@@ -2225,15 +2473,23 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="55.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C15" s="10" t="s">
         <v>82</v>
       </c>
@@ -2246,8 +2502,12 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="121.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2260,8 +2520,12 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
@@ -2279,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB76DC89-3AF4-4E1B-800A-75F09BD2A2C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>

--- a/01_ライフコース/02_自己紹介サイト作成/確認事項.xlsx
+++ b/01_ライフコース/02_自己紹介サイト作成/確認事項.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\Dキャリアコース\01_ライフコース\02_自己紹介サイト作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\JOB\DCareer\DWork\01_ライフコース\02_自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FADA09-302B-44CE-ACE1-C12E4FCC1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DBE9F-D885-4B5F-B6A0-ED47B7D6FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12576" yWindow="228" windowWidth="10272" windowHeight="12012" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19365" windowHeight="13635" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工数" sheetId="7" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="103">
   <si>
     <t>h1</t>
   </si>
@@ -420,10 +409,6 @@
     <rPh sb="1" eb="5">
       <t>カイメテイシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1h</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1046,18 +1031,18 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>95</v>
       </c>
@@ -1071,13 +1056,13 @@
         <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1">
       <c r="A2" s="15">
         <v>46017</v>
       </c>
@@ -1093,7 +1078,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="22">
         <f>SUM(C2:E100)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="22">
         <v>20</v>
@@ -1282,7 +1267,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1523,8 +1508,8 @@
       <c r="D35" s="14">
         <v>0.5</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>101</v>
+      <c r="E35" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1616,7 +1601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="13" customWidth="1"/>
@@ -1751,11 +1736,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="4.59765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="66.796875" customWidth="1"/>
+    <col min="1" max="2" width="4.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1772,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="92.4">
+    <row r="2" spans="1:4" ht="89.25">
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
@@ -1786,7 +1771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.4">
+    <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
@@ -1800,7 +1785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54">
+    <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
@@ -1814,7 +1799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="92.4">
+    <row r="5" spans="1:4" ht="89.25">
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
@@ -1828,7 +1813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4">
+    <row r="6" spans="1:4" ht="25.5">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -1842,7 +1827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.4">
+    <row r="7" spans="1:4" ht="25.5">
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1948,9 +1933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="5.19921875" style="13" customWidth="1"/>
+    <col min="1" max="2" width="5.25" style="13" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2181,11 +2166,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="93.59765625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="93.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2221,7 +2206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
@@ -2232,7 +2217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="28.5">
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
@@ -2254,7 +2239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2265,7 +2250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3" ht="28.5">
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
@@ -2294,7 +2279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="28.5">
       <c r="A11" s="12" t="s">
         <v>87</v>
       </c>
@@ -2316,7 +2301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8">
+    <row r="13" spans="1:3" ht="28.5">
       <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
@@ -2339,10 +2324,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="5.59765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="84.796875" customWidth="1"/>
+    <col min="1" max="2" width="5.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="84.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2352,7 +2337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8">
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
@@ -2374,7 +2359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
@@ -2407,7 +2392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2436,7 +2421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2">
+    <row r="10" spans="1:3" ht="54">
       <c r="A10" s="12" t="s">
         <v>87</v>
       </c>
@@ -2454,7 +2439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="55.2">
+    <row r="12" spans="1:3" ht="54">
       <c r="A12" s="12" t="s">
         <v>87</v>
       </c>
@@ -2472,7 +2457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="55.2">
+    <row r="14" spans="1:3" ht="54">
       <c r="A14" s="12" t="s">
         <v>87</v>
       </c>
@@ -2494,14 +2479,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="28.5">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="121.2">
+    <row r="17" spans="1:3" ht="117.75">
       <c r="A17" s="12" t="s">
         <v>87</v>
       </c>
@@ -2547,7 +2532,7 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
